--- a/BookSheet.xlsx
+++ b/BookSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khush\Desktop\BookFetch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5A0771-42EB-4EFA-BD66-9AEFF3FF1E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505E3095-4AC2-4960-9BA7-732AC56ED16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,17 +59,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -73,56 +85,114 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -134,131 +204,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -270,15 +369,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="D1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>